--- a/biology/Zoologie/Bolcaichthys/Bolcaichthys.xlsx
+++ b/biology/Zoologie/Bolcaichthys/Bolcaichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolcaichthys catopygopterus
 Bolcaichthys est un genre fossile de poissons osseux marins de la famille des clupéidés et de l'ordre des Clupeiformes qui comprend aujourd'hui les harengs, aloses, sardines, etc.
-Une seule espèce est rattachée à ce genre : Bolcaichthys catopygopterus, décrite en 2015 par Giuseppe Marramà et Giorgio Carnevale, et connue précédemment sous le nom binominal de Clupea catopygoptera Woodward[1].
+Une seule espèce est rattachée à ce genre : Bolcaichthys catopygopterus, décrite en 2015 par Giuseppe Marramà et Giorgio Carnevale, et connue précédemment sous le nom binominal de Clupea catopygoptera Woodward.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Découverte et datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un très grand nombre de fossiles de Bolcaichthys, parfaitement préservés, ont été découverts sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca sur la zone dite de « Pesciara », en Vénétie (Italie). Bolcaichthys catopygopterus a vécu dans les mers tropicales de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 49 et 48,5 Ma (millions d'années)[2],[3]. 
-C'est l'espèce la plus abondante quant au nombre de spécimens fossiles du secteur de Pesciara, le principal du site du Monte Bolca[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un très grand nombre de fossiles de Bolcaichthys, parfaitement préservés, ont été découverts sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca sur la zone dite de « Pesciara », en Vénétie (Italie). Bolcaichthys catopygopterus a vécu dans les mers tropicales de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 49 et 48,5 Ma (millions d'années),. 
+C'est l'espèce la plus abondante quant au nombre de spécimens fossiles du secteur de Pesciara, le principal du site du Monte Bolca.
 L'environnement péri-récifal tropical de l'Éocène du Monte Bolca est sous influence à la fois côtière et de mer ouverte. Dans cet environnement, les fossiles ont été préservés dans des sédiments calcaires laminés, déposés dans une dépression à faible énergie, sous un environnement anoxique.
-Ces poissons de taille modeste, comparés par les inventeurs de l'espèce à des sardines, n'ont guère été étudiés jusqu'en 2015. Ils étaient précédemment regroupés sous le nom de Clupea catopygoptera[1].
+Ces poissons de taille modeste, comparés par les inventeurs de l'espèce à des sardines, n'ont guère été étudiés jusqu'en 2015. Ils étaient précédemment regroupés sous le nom de Clupea catopygoptera.
 </t>
         </is>
       </c>
@@ -547,10 +561,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marramà et Carnevale ont étudié environ 300 de ces fossiles de clupéidés, et aboutissent en 2015 à la conclusion que plus de 95 % du matériel disponible appartient à une même espèce, Bolcaichthys catopygoptera, à des stades de croissance différents[1]. 
-L'adulte a une longueur totale ne dépassant pas 10 centimètres dont la tête représente environ un tiers à un quart de la longueur standard du corps de l'animal. Le sommet du crâne montre 10 à 14 stries frontopariétales. La bouche est située tout à l'avant de la tête et ses mâchoires et palais sont dépourvus de dents, la colonne vertébrale est constituée de 40 à 42 vertèbres et 20 à 22 côtes pleurales[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marramà et Carnevale ont étudié environ 300 de ces fossiles de clupéidés, et aboutissent en 2015 à la conclusion que plus de 95 % du matériel disponible appartient à une même espèce, Bolcaichthys catopygoptera, à des stades de croissance différents. 
+L'adulte a une longueur totale ne dépassant pas 10 centimètres dont la tête représente environ un tiers à un quart de la longueur standard du corps de l'animal. Le sommet du crâne montre 10 à 14 stries frontopariétales. La bouche est située tout à l'avant de la tête et ses mâchoires et palais sont dépourvus de dents, la colonne vertébrale est constituée de 40 à 42 vertèbres et 20 à 22 côtes pleurales.
 </t>
         </is>
       </c>
@@ -579,12 +595,14 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'environnement marin de l'Éocène du Monte Bolca était parfois favorable à des efflorescences algales de microalgues unicellulaires comme des diatomées[5] qui constituaient alors la source principale d’alimentation de grands bancs de « sardines » du genre Bolcaichthys[1],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'environnement marin de l'Éocène du Monte Bolca était parfois favorable à des efflorescences algales de microalgues unicellulaires comme des diatomées qui constituaient alors la source principale d’alimentation de grands bancs de « sardines » du genre Bolcaichthys,.
 Deux autres clupéidés de la même taille sont présents dans les calcaires laminés du Monte Bolca, il s'agit :
-d'une sorte de harengs : Trollichthys bolcensis[7] ;
-d'une sorte d'aloses : Eoalosa janvieri[4].</t>
+d'une sorte de harengs : Trollichthys bolcensis ;
+d'une sorte d'aloses : Eoalosa janvieri.</t>
         </is>
       </c>
     </row>
